--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_ex04_end.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_ex04_end.xlsx
@@ -240,7 +240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="그라니"]   어디, 내용은…….
+    <t xml:space="preserve">[name="그라니"]   어디, 내용은……
 </t>
   </si>
   <si>
